--- a/data/trans_media/P34F2H-Habitat-trans_media.xlsx
+++ b/data/trans_media/P34F2H-Habitat-trans_media.xlsx
@@ -579,12 +579,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 1,31</t>
+          <t>0,9; 1,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,08</t>
+          <t>0,67; 1,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -629,12 +629,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,73; 0,99</t>
+          <t>0,73; 0,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 0,85</t>
+          <t>0,7; 0,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 0,9</t>
+          <t>0,73; 0,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 0,78</t>
+          <t>0,65; 0,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 0,82</t>
+          <t>0,7; 0,81</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 1,1</t>
+          <t>0,9; 1,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 1,0</t>
+          <t>0,87; 1,0</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 0,85</t>
+          <t>0,7; 0,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 0,9</t>
+          <t>0,78; 0,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/P34F2H-Habitat-trans_media.xlsx
+++ b/data/trans_media/P34F2H-Habitat-trans_media.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 1,31</t>
+          <t>0,88; 1,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 1,05</t>
+          <t>0,69; 1,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 1,11</t>
+          <t>0,84; 1,12</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,12 +629,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,73; 0,98</t>
+          <t>0,72; 0,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 0,84</t>
+          <t>0,7; 0,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -684,19 +684,19 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 0,78</t>
+          <t>0,64; 0,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 0,81</t>
+          <t>0,71; 0,81</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -729,12 +729,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,9; 1,1</t>
+          <t>0,9; 1,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 0,96</t>
+          <t>0,8; 0,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 1,0</t>
+          <t>0,83; 1,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 0,84</t>
+          <t>0,7; 0,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,78; 0,9</t>
+          <t>0,78; 0,89</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,85; 0,94</t>
+          <t>0,86; 0,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
